--- a/doc/log/log_201608040234_zhiyoumeng.xlsx
+++ b/doc/log/log_201608040234_zhiyoumeng.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
   <si>
     <t>日期</t>
   </si>
@@ -37,15 +37,588 @@
     <t>12：00-15：00</t>
   </si>
   <si>
-    <t>完善一部分自己建的文件，并将dream文件中的个文件
-中的pom.xml文件进行了对比。根据这些文件并对自己
-的pom.xml文件进行了完善和对比</t>
+    <t>完善一部分自己建的文件，并将dream文件中的个文件中的pom.xml文件进行了对比。根据这些文件并对自己的pom.xml文件进行了完善和对比</t>
   </si>
   <si>
     <t>完成了一部分pom.xml文件的对比</t>
   </si>
   <si>
     <t>继续完成该任务</t>
+  </si>
+  <si>
+    <t>2018.5.2</t>
+  </si>
+  <si>
+    <t>20：00-10：30</t>
+  </si>
+  <si>
+    <t>模仿老师的dream文件进行建立自己的文件</t>
+  </si>
+  <si>
+    <t>建立了一部分文件</t>
+  </si>
+  <si>
+    <t>完善其他文件</t>
+  </si>
+  <si>
+    <t>2018.5.3</t>
+  </si>
+  <si>
+    <t>建立了剩余的文件</t>
+  </si>
+  <si>
+    <t>完善文件，但出现
+错误，解决错误</t>
+  </si>
+  <si>
+    <t>2018.5.4</t>
+  </si>
+  <si>
+    <t>将自己建立的文件进行完善，并进行
+解决pom.xml文件中出现的错误</t>
+  </si>
+  <si>
+    <t>解决了pom.xml文件中
+出现的错误</t>
+  </si>
+  <si>
+    <t>继续对自己的文件
+进行完善</t>
+  </si>
+  <si>
+    <t>2018.5.5</t>
+  </si>
+  <si>
+    <t>9：00-12：00</t>
+  </si>
+  <si>
+    <t>建立自己的实体类、实体管理员等java文件</t>
+  </si>
+  <si>
+    <t>建立完成，
+但有很多错误</t>
+  </si>
+  <si>
+    <t>对文件出现的错
+误进行修改</t>
+  </si>
+  <si>
+    <t>2018.5.6</t>
+  </si>
+  <si>
+    <t>10：30-12：30</t>
+  </si>
+  <si>
+    <t>修改了一部分文件错误</t>
+  </si>
+  <si>
+    <t>人在修改文件错误，
+一直找不出来错误</t>
+  </si>
+  <si>
+    <t>继续进行修改，
+并和同学进行讨论</t>
+  </si>
+  <si>
+    <t>2018.5.7</t>
+  </si>
+  <si>
+    <t>和项目组成员讨论了互相出现的错误</t>
+  </si>
+  <si>
+    <t>解决了大部分
+自己不会的问题</t>
+  </si>
+  <si>
+    <t>完善文件</t>
+  </si>
+  <si>
+    <t>2018.5.8</t>
+  </si>
+  <si>
+    <t>建立自己的实体时，发现对好多注解
+不太明白，学习了文件中老师建立的很多注解</t>
+  </si>
+  <si>
+    <t>学习了很多的注解，
+及注解的属性</t>
+  </si>
+  <si>
+    <t>完善自己的实体</t>
+  </si>
+  <si>
+    <t>2018.5.9</t>
+  </si>
+  <si>
+    <t>用昨天学习的注解完成自己的实体的建立</t>
+  </si>
+  <si>
+    <t>完成实体的大部分建立</t>
+  </si>
+  <si>
+    <t>对代码继续进行改进</t>
+  </si>
+  <si>
+    <t>2018.5.10</t>
+  </si>
+  <si>
+    <t>代码仍需改进，根据老师上课所讲的东西再进行改进</t>
+  </si>
+  <si>
+    <t>对代码进行了改进</t>
+  </si>
+  <si>
+    <t>pom文件全部出错</t>
+  </si>
+  <si>
+    <t>2018.5.11</t>
+  </si>
+  <si>
+    <t>对出错的pom文件进行改正，完成service文件
+中错误的改正</t>
+  </si>
+  <si>
+    <t>仍未找出问题的原因</t>
+  </si>
+  <si>
+    <t>和小组成员进行讨
+论pom文件中出现
+的错误</t>
+  </si>
+  <si>
+    <t>2018.5.12</t>
+  </si>
+  <si>
+    <t>组织小组成员分别提出自己的问题，
+并集体进行解决</t>
+  </si>
+  <si>
+    <t>解决了部分问题</t>
+  </si>
+  <si>
+    <t>发现小组成员有部
+分成员比较生疏</t>
+  </si>
+  <si>
+    <t>2018.5.13</t>
+  </si>
+  <si>
+    <t>16：00-19：00</t>
+  </si>
+  <si>
+    <t>小组组织一起学习，对不会的同学进行疏导。帮助
+每个人完成项目的建立</t>
+  </si>
+  <si>
+    <t>各位同学都有项目的建立成功，凡是仍有不足</t>
+  </si>
+  <si>
+    <t>辅导剩于同学
+项目的建立</t>
+  </si>
+  <si>
+    <t>2018.5.14</t>
+  </si>
+  <si>
+    <t>帮助剩于同学完成一部分项目的建立和未明
+确知识点的梳理</t>
+  </si>
+  <si>
+    <t>小组个人员项目
+大致建立完成</t>
+  </si>
+  <si>
+    <t>完善自己的项目</t>
+  </si>
+  <si>
+    <t>2018.5.15</t>
+  </si>
+  <si>
+    <t>病假未写</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>2018.5.16</t>
+  </si>
+  <si>
+    <t>重新建立自己的实体类Group（分组）</t>
+  </si>
+  <si>
+    <t>对建立的实体进
+行改错</t>
+  </si>
+  <si>
+    <t>2018.5.17</t>
+  </si>
+  <si>
+    <t>对重建实体改错</t>
+  </si>
+  <si>
+    <t>实体改错完成</t>
+  </si>
+  <si>
+    <t>发现小组成员文件构建不统一，无法
+进行合成</t>
+  </si>
+  <si>
+    <t>2018.5.18</t>
+  </si>
+  <si>
+    <t>由于项目组构建不统一，所有成员对文件构架进
+行统一。并实现了连接数据库</t>
+  </si>
+  <si>
+    <t>完成数据库的连接，并对dao文件和service文件进行了统一</t>
+  </si>
+  <si>
+    <t>根据架构师的设计，统一完善</t>
+  </si>
+  <si>
+    <t>2018.5.19</t>
+  </si>
+  <si>
+    <t>根据架构师的设计，对已完成文件
+进行修改，并优化</t>
+  </si>
+  <si>
+    <t>项目组所有成员统一了文件，修改、优化完成</t>
+  </si>
+  <si>
+    <t>对接口内部的东西
+进行完善</t>
+  </si>
+  <si>
+    <t>2018.5.20</t>
+  </si>
+  <si>
+    <t>8：00-11：00</t>
+  </si>
+  <si>
+    <t>用架构师统一的文件建立自己的实体，并运行代码</t>
+  </si>
+  <si>
+    <t>代码运行成功，数据
+库导入完成</t>
+  </si>
+  <si>
+    <t>进行接口内部完善</t>
+  </si>
+  <si>
+    <t>2018.5.21</t>
+  </si>
+  <si>
+    <t>18：00-20：00</t>
+  </si>
+  <si>
+    <t>填写自己项目的代码</t>
+  </si>
+  <si>
+    <t>代码运行失败</t>
+  </si>
+  <si>
+    <t>学习相关jsp框架的搭建</t>
+  </si>
+  <si>
+    <t>2018.5.22</t>
+  </si>
+  <si>
+    <t>搭建没有成功</t>
+  </si>
+  <si>
+    <t>学习建立web页面</t>
+  </si>
+  <si>
+    <t>2018.5.23</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>尝试建立web页面</t>
+  </si>
+  <si>
+    <t>2018.5.24</t>
+  </si>
+  <si>
+    <t>建立web页面</t>
+  </si>
+  <si>
+    <t>2018.5.25</t>
+  </si>
+  <si>
+    <t>发现自己base错误，并修改</t>
+  </si>
+  <si>
+    <t>2018.5.26</t>
+  </si>
+  <si>
+    <t>14：00-16：00</t>
+  </si>
+  <si>
+    <t>修改失败</t>
+  </si>
+  <si>
+    <t>修改base配置</t>
+  </si>
+  <si>
+    <t>2018.5.27</t>
+  </si>
+  <si>
+    <t>检查dao里缺少的</t>
+  </si>
+  <si>
+    <t>2018.5.28</t>
+  </si>
+  <si>
+    <t>补充一部分</t>
+  </si>
+  <si>
+    <t>调配环境，运行老师的web，仿照老师一步一步建立。</t>
+  </si>
+  <si>
+    <t>2018.5.29</t>
+  </si>
+  <si>
+    <t>运行成功</t>
+  </si>
+  <si>
+    <t>修改base中的一些配置</t>
+  </si>
+  <si>
+    <t>2018.5.30</t>
+  </si>
+  <si>
+    <t>完成，但是有些
+看不懂</t>
+  </si>
+  <si>
+    <t>建立自己实体类的表格信息</t>
+  </si>
+  <si>
+    <t>2018.5.31</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>研究jsp文件</t>
+  </si>
+  <si>
+    <t>2018.6.1</t>
+  </si>
+  <si>
+    <t>有些看不懂</t>
+  </si>
+  <si>
+    <t>将表格信息跑进数据库</t>
+  </si>
+  <si>
+    <t>2018.6.2</t>
+  </si>
+  <si>
+    <t>学习web块的相关知识</t>
+  </si>
+  <si>
+    <t>2018.6.3</t>
+  </si>
+  <si>
+    <t>部分完成</t>
+  </si>
+  <si>
+    <t>按照老师的代码修改网页主界面</t>
+  </si>
+  <si>
+    <t>2018.6.4</t>
+  </si>
+  <si>
+    <t>19：00-21：00</t>
+  </si>
+  <si>
+    <t>修改网页编辑页面</t>
+  </si>
+  <si>
+    <t>2018.6.5</t>
+  </si>
+  <si>
+    <t>19：00-21：30</t>
+  </si>
+  <si>
+    <t>对web进行运行</t>
+  </si>
+  <si>
+    <t>2018.6.6</t>
+  </si>
+  <si>
+    <t>有网页，但没有数
+据</t>
+  </si>
+  <si>
+    <t>2018.6.7</t>
+  </si>
+  <si>
+    <t>对dao中的文件进行修改</t>
+  </si>
+  <si>
+    <t>dao中文件大致修改完
+成，但仍有错误</t>
+  </si>
+  <si>
+    <t>完善dao中的文件</t>
+  </si>
+  <si>
+    <t>2018.6.8</t>
+  </si>
+  <si>
+    <t>修改dao中的错误</t>
+  </si>
+  <si>
+    <t>dao中文件修改完成</t>
+  </si>
+  <si>
+    <t>完成service中文
+件的修改</t>
+  </si>
+  <si>
+    <t>2018.6.9</t>
+  </si>
+  <si>
+    <t>对service中的内容进行修改</t>
+  </si>
+  <si>
+    <t>service中文件大致修改完成，但仍有错误</t>
+  </si>
+  <si>
+    <t>完善service中的
+文件</t>
+  </si>
+  <si>
+    <t>2018.6.10</t>
+  </si>
+  <si>
+    <t>导入excel表格，并传入到数据库</t>
+  </si>
+  <si>
+    <t>导入成功</t>
+  </si>
+  <si>
+    <t>2018.6.11</t>
+  </si>
+  <si>
+    <t>20：00-10：00</t>
+  </si>
+  <si>
+    <t>建立teacherEntity</t>
+  </si>
+  <si>
+    <t>建立未完成</t>
+  </si>
+  <si>
+    <t>2018.6.12</t>
+  </si>
+  <si>
+    <t>2018.6.13</t>
+  </si>
+  <si>
+    <t>对web中的代码进行修改完善自己的js文件</t>
+  </si>
+  <si>
+    <t>js文件大致完善，
+但仍存在问题</t>
+  </si>
+  <si>
+    <t>继续解决js问题</t>
+  </si>
+  <si>
+    <t>2018.6.14</t>
+  </si>
+  <si>
+    <t>17：00-21：00</t>
+  </si>
+  <si>
+    <t>对js文件进行修改</t>
+  </si>
+  <si>
+    <t>js文件修改完成</t>
+  </si>
+  <si>
+    <t>将表格导入到
+数据库中</t>
+  </si>
+  <si>
+    <t>2018.6.15</t>
+  </si>
+  <si>
+    <t>8：00-10：00</t>
+  </si>
+  <si>
+    <t>完成将表格导入到数据库，但web页面仍存在问题</t>
+  </si>
+  <si>
+    <t>成功导入到数据库</t>
+  </si>
+  <si>
+    <t>将数据从数据库
+中读入</t>
+  </si>
+  <si>
+    <t>2018.6.16</t>
+  </si>
+  <si>
+    <t>对代码进行修改，实现从数据库中读入</t>
+  </si>
+  <si>
+    <t>成功从数据库读入，
+但年龄部分为零</t>
+  </si>
+  <si>
+    <t>对代码继续完善</t>
+  </si>
+  <si>
+    <t>2018.6.17</t>
+  </si>
+  <si>
+    <t>页面加载完成</t>
+  </si>
+  <si>
+    <t>2018.6.18</t>
+  </si>
+  <si>
+    <t>2018.6.19</t>
+  </si>
+  <si>
+    <t>2018.6.20</t>
+  </si>
+  <si>
+    <t>2018.6.21</t>
+  </si>
+  <si>
+    <t>2018.6.22</t>
+  </si>
+  <si>
+    <t>2018.6.23</t>
+  </si>
+  <si>
+    <t>2018.6.24</t>
+  </si>
+  <si>
+    <t>2018.6.25</t>
+  </si>
+  <si>
+    <t>2018.6.26</t>
+  </si>
+  <si>
+    <t>2018.6.27</t>
+  </si>
+  <si>
+    <t>2018.6.28</t>
+  </si>
+  <si>
+    <t>2018.6.29</t>
+  </si>
+  <si>
+    <t>2018.6.30</t>
   </si>
 </sst>
 </file>
@@ -55,15 +628,37 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,38 +669,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,30 +700,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -160,29 +716,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,8 +730,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -210,6 +766,38 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -220,187 +808,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,8 +1005,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,6 +1035,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -439,6 +1057,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,45 +1085,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,164 +1100,177 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -719,6 +1320,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -987,51 +1589,916 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.3666666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="17.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="27.7818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="54" customHeight="1" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" ht="53" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="53" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="53" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="53" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="53" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="53" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="53" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="53" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="53" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" ht="53" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" ht="53" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" ht="53" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" ht="53" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" ht="53" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" ht="53" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" ht="53" customHeight="1" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" ht="53" customHeight="1" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" ht="53" customHeight="1" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" ht="53" customHeight="1" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" ht="53" customHeight="1" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" ht="53" customHeight="1" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" ht="53" customHeight="1" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" ht="53" customHeight="1" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" ht="53" customHeight="1" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" ht="53" customHeight="1" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" ht="53" customHeight="1" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" ht="53" customHeight="1" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" ht="53" customHeight="1" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" ht="53" customHeight="1" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" ht="53" customHeight="1" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" ht="53" customHeight="1" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" ht="53" customHeight="1" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" ht="53" customHeight="1" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" ht="53" customHeight="1" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" ht="53" customHeight="1" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" ht="53" customHeight="1" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" ht="53" customHeight="1" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" ht="53" customHeight="1" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" ht="53" customHeight="1" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" ht="53" customHeight="1" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" ht="53" customHeight="1" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" ht="53" customHeight="1" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" ht="53" customHeight="1" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" ht="53" customHeight="1" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" ht="53" customHeight="1" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" ht="53" customHeight="1" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" ht="53" customHeight="1" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" ht="53" customHeight="1" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" ht="53" customHeight="1" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" ht="53" customHeight="1" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" ht="53" customHeight="1" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" ht="53" customHeight="1" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" ht="53" customHeight="1" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" ht="53" customHeight="1" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" ht="53" customHeight="1" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" ht="53" customHeight="1" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" ht="53" customHeight="1" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" ht="53" customHeight="1" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" ht="53" customHeight="1" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" ht="53" customHeight="1" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" ht="53" customHeight="1" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040234_zhiyoumeng.xlsx
+++ b/doc/log/log_201608040234_zhiyoumeng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
   <si>
     <t>日期</t>
   </si>
@@ -566,6 +566,21 @@
     <t>2018.6.16</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>2018.6.17</t>
+  </si>
+  <si>
+    <t>2018.6.18</t>
+  </si>
+  <si>
+    <t>13：00-16：30</t>
+  </si>
+  <si>
+    <t>2018.6.19</t>
+  </si>
+  <si>
     <t>对代码进行修改，实现从数据库中读入</t>
   </si>
   <si>
@@ -576,49 +591,168 @@
     <t>对代码继续完善</t>
   </si>
   <si>
-    <t>2018.6.17</t>
+    <t>2018.6.20</t>
   </si>
   <si>
     <t>页面加载完成</t>
   </si>
   <si>
-    <t>2018.6.18</t>
-  </si>
-  <si>
-    <t>2018.6.19</t>
-  </si>
-  <si>
-    <t>2018.6.20</t>
-  </si>
-  <si>
     <t>2018.6.21</t>
   </si>
   <si>
+    <t>主界面main的设计</t>
+  </si>
+  <si>
+    <t>基本完成，仍需一点完善</t>
+  </si>
+  <si>
+    <t>继续完善main函数</t>
+  </si>
+  <si>
     <t>2018.6.22</t>
   </si>
   <si>
+    <t>继续完成main的设计</t>
+  </si>
+  <si>
+    <t>main函数设计完成</t>
+  </si>
+  <si>
+    <t>开始完善自己的group函数</t>
+  </si>
+  <si>
     <t>2018.6.23</t>
   </si>
   <si>
+    <t>对自己的group函数进行设计</t>
+  </si>
+  <si>
+    <t>group设计了一部分界面</t>
+  </si>
+  <si>
+    <t>完善group界面部分</t>
+  </si>
+  <si>
     <t>2018.6.24</t>
   </si>
   <si>
+    <t>group界面部分基本完善</t>
+  </si>
+  <si>
+    <t>group界面部分设置完成</t>
+  </si>
+  <si>
+    <t>group功能部分的完善</t>
+  </si>
+  <si>
     <t>2018.6.25</t>
   </si>
   <si>
+    <t>group可以展示出来全部分组，查询仍在尝试</t>
+  </si>
+  <si>
+    <t>完成一部分设置</t>
+  </si>
+  <si>
+    <t>完成group部分的查询功能部分</t>
+  </si>
+  <si>
     <t>2018.6.26</t>
   </si>
   <si>
+    <t>group查询功能</t>
+  </si>
+  <si>
+    <t>查询功能的界面</t>
+  </si>
+  <si>
+    <t>继续完成查询</t>
+  </si>
+  <si>
     <t>2018.6.27</t>
   </si>
   <si>
+    <t>部分函数的实现</t>
+  </si>
+  <si>
     <t>2018.6.28</t>
   </si>
   <si>
+    <t>数据的成功导入</t>
+  </si>
+  <si>
     <t>2018.6.29</t>
   </si>
   <si>
+    <t>功能的实现</t>
+  </si>
+  <si>
     <t>2018.6.30</t>
+  </si>
+  <si>
+    <t>功能基本实现，但仍有
+错误</t>
+  </si>
+  <si>
+    <t>继续改正group查询</t>
+  </si>
+  <si>
+    <t>2018.7.1</t>
+  </si>
+  <si>
+    <t>未能改正错误，
+完善了其余部分</t>
+  </si>
+  <si>
+    <t>修改group中修改的部分</t>
+  </si>
+  <si>
+    <t>2018.7.2</t>
+  </si>
+  <si>
+    <t>错误仍存在</t>
+  </si>
+  <si>
+    <t>组织成员进行讨论</t>
+  </si>
+  <si>
+    <t>2018.7.3</t>
+  </si>
+  <si>
+    <t>组织小组各个成员集体完善自己的代码</t>
+  </si>
+  <si>
+    <t>代码完善仍有不足</t>
+  </si>
+  <si>
+    <t>自行完善代码，并完善报告</t>
+  </si>
+  <si>
+    <t>2018.7.4</t>
+  </si>
+  <si>
+    <t>立项申请书的完善撰写</t>
+  </si>
+  <si>
+    <t>立项申请书完成</t>
+  </si>
+  <si>
+    <t>项目总结报告</t>
+  </si>
+  <si>
+    <t>2018.7.5</t>
+  </si>
+  <si>
+    <t>项目总结报告完成</t>
+  </si>
+  <si>
+    <t>汇总检查</t>
+  </si>
+  <si>
+    <t>2018.7.6</t>
+  </si>
+  <si>
+    <t>13：00-16：31</t>
   </si>
 </sst>
 </file>
@@ -626,12 +760,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,21 +783,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,27 +835,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -706,11 +843,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,44 +898,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,25 +912,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,187 +935,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,23 +1132,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,7 +1142,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,11 +1188,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,17 +1218,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,10 +1234,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,138 +1246,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1263,11 +1390,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1589,10 +1719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1951,7 +2081,7 @@
       <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1968,13 +2098,13 @@
       <c r="B22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1985,13 +2115,13 @@
       <c r="B23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2002,13 +2132,13 @@
       <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2019,13 +2149,13 @@
       <c r="B25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2036,13 +2166,13 @@
       <c r="B26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2053,13 +2183,13 @@
       <c r="B27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2070,13 +2200,13 @@
       <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2087,10 +2217,10 @@
       <c r="B29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -2107,7 +2237,7 @@
       <c r="C30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -2141,7 +2271,7 @@
       <c r="C32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2158,7 +2288,7 @@
       <c r="C33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -2175,7 +2305,7 @@
       <c r="C34" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -2192,7 +2322,7 @@
       <c r="C35" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -2209,7 +2339,7 @@
       <c r="C36" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -2226,7 +2356,7 @@
       <c r="C37" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -2246,7 +2376,7 @@
       <c r="D38" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" ht="53" customHeight="1" spans="1:5">
       <c r="A39" s="2" t="s">
@@ -2261,7 +2391,7 @@
       <c r="D39" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2272,10 +2402,10 @@
       <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -2306,13 +2436,13 @@
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2323,13 +2453,13 @@
       <c r="B43" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2340,13 +2470,13 @@
       <c r="B44" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2363,7 +2493,7 @@
       <c r="D45" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2394,7 +2524,7 @@
       <c r="C47" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -2408,101 +2538,350 @@
       <c r="B48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>174</v>
+      <c r="D48" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="49" ht="53" customHeight="1" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" ht="53" customHeight="1" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" ht="53" customHeight="1" spans="1:5">
+      <c r="A51" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="B51" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" ht="53" customHeight="1" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E52" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" ht="53" customHeight="1" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" ht="53" customHeight="1" spans="1:1">
-      <c r="A51" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" ht="53" customHeight="1" spans="1:1">
-      <c r="A52" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" ht="53" customHeight="1" spans="1:1">
+    <row r="53" ht="53" customHeight="1" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" ht="53" customHeight="1" spans="1:1">
+        <v>182</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" ht="53" customHeight="1" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" ht="53" customHeight="1" spans="1:1">
+        <v>186</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" ht="53" customHeight="1" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" ht="53" customHeight="1" spans="1:1">
+        <v>190</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" ht="53" customHeight="1" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" ht="53" customHeight="1" spans="1:1">
+        <v>194</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" ht="53" customHeight="1" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" ht="53" customHeight="1" spans="1:1">
+        <v>198</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" ht="53" customHeight="1" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" ht="53" customHeight="1" spans="1:1">
+        <v>202</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" ht="53" customHeight="1" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" ht="53" customHeight="1" spans="1:1">
+        <v>206</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" ht="53" customHeight="1" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" ht="53" customHeight="1" spans="1:1">
+        <v>208</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" t="s">
+        <v>209</v>
+      </c>
+      <c r="E60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" ht="53" customHeight="1" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" ht="53" customHeight="1" spans="1:1">
+        <v>210</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" t="s">
+        <v>211</v>
+      </c>
+      <c r="E61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" ht="53" customHeight="1" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>189</v>
+        <v>212</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" ht="52.7" customHeight="1" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E63" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" ht="52.7" customHeight="1" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" ht="52.7" customHeight="1" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" ht="52.7" customHeight="1" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" ht="52.7" customHeight="1" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" ht="52.7" customHeight="1" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>